--- a/doNetLearn/2025.xlsx
+++ b/doNetLearn/2025.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yingying.zhu\Desktop\记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LearnDemo\doNetLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E679A8-44E7-4B09-8601-1B5FA1C30B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966ED87-E8EB-4697-A444-E26571FB9B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="1860" windowWidth="16410" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +41,98 @@
   </si>
   <si>
     <t>睡觉：10：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床7：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：15-8：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班8：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班7：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热身、拉伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去健身7：40~8：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家洗漱9：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉10：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热身，拉伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00~10：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：30~11：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭，休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午【玩手机、跳舞、出去玩】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身【40分钟有氧，背，臀腿，肩手臂胸】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搓澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：20搓澡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,12 +156,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -368,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -408,4 +523,162 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666A645-10B7-4A7A-8DC3-61575778F6DF}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.58203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>